--- a/data/XII-IIS-2.xlsx
+++ b/data/XII-IIS-2.xlsx
@@ -8,25 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tugas Akhir\Development\New Develop\Aplikasi-Penilaian-Otomatis-Esai-BI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEAD14C-7C05-4A03-A12C-B0B21AA40505}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A861148-9A7D-41E8-8012-7DA882C16957}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOAL-1-XII-IIS-2" sheetId="1" r:id="rId1"/>
     <sheet name="SOAL-2-XII-IIS-2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="145">
   <si>
     <t>TEMPLATE PENILAIAN MANUAL</t>
   </si>
@@ -91,309 +96,81 @@
     <t>Skor</t>
   </si>
   <si>
-    <t>0029477695</t>
-  </si>
-  <si>
-    <t>AHMAD TIRTA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pertumbuhan dalah bertambahnya tinggi, massa, pada tanaman yang dihitung dengan angka dan bersifat flesksibel (tidak dapat kembalike semula). Perkembangan adalah perkembangan sebuah tumbuhan yang tidak dapat dihitung dengan angka dan dapat kembali seperti semula </t>
   </si>
   <si>
-    <t>0005795808</t>
-  </si>
-  <si>
-    <t>ANDIKA YUDHA PRATAMA</t>
-  </si>
-  <si>
-    <t>0002971271</t>
-  </si>
-  <si>
-    <t>ANISA NURIYANTI</t>
-  </si>
-  <si>
     <t>Pertumbuhan : bersifat kuantitatif (Dapat digambarkan dengan bilangan), terbatas oleh usia, bersifat irreversible (tidak dapat balik), dipengaruhi pertumbuhan sel. Perkembangan : bersifat kualitatif ( tidak dapat digambarkan dengan bilangan), dilihat dari fisik dan kemampuan, tidak terbatas usia, besifat revisible (dapat balik) ,dipengaruhi pengalaman</t>
   </si>
   <si>
-    <t>0011357243</t>
-  </si>
-  <si>
-    <t>APRIANI PUTRI HIDAYAH</t>
-  </si>
-  <si>
     <t>Pertumbuhan primer adalah tumbuh secara memanjang, pertumbuhan sekunder adalah tumbuh secara melebar.Perkembangan dapat dinyatakan dengan bilangan. Pertumbuhan tidak dapat dinyatakan dengan bilangan</t>
   </si>
   <si>
-    <t>0010371009</t>
-  </si>
-  <si>
-    <t>APRILLIA GUSTIARINI</t>
-  </si>
-  <si>
     <t>Pertumbuhan untuk meningkatkan ke yang lebih tinggi. Perkembangan : suatu proses menuju kedewasaan</t>
   </si>
   <si>
-    <t>0002801575</t>
-  </si>
-  <si>
-    <t>ASTRI RAHMAWATI</t>
-  </si>
-  <si>
-    <t>0001041297</t>
-  </si>
-  <si>
-    <t>DEFANA BALQIS TITANIA</t>
-  </si>
-  <si>
     <t>Pertumbuhan : dipengaruhi perbedaan sel, terlihat dari keadaan fisik, memiliki batasan, bersifat irrevesible.Perkembangan : dipengaruhi pengalaman, terlihat dari sifat dan kemampuan,tidak terbatas oleh usia, bersifat reversible.</t>
   </si>
   <si>
-    <t>0020110989</t>
-  </si>
-  <si>
-    <t>DEVIA ARIANTI</t>
-  </si>
-  <si>
-    <t>0010412524</t>
-  </si>
-  <si>
-    <t>DIKRI ISTI KOMARIAH</t>
-  </si>
-  <si>
     <t xml:space="preserve">Perkembangan : bisa dihitung dengan angka (kuantitatif) , bisa dilihat darifisik, ada batas usia, mengalami pembelahan. Pertumbuhan :tidak bisa dihitung dengan angka (kualitatif) tidak bisa dilihat dari fisik, tidak ada batas usia, bertambahnya pengalaman </t>
   </si>
   <si>
-    <t>0005739300</t>
-  </si>
-  <si>
-    <t>ERIKA SEPTIANI PUTRI</t>
-  </si>
-  <si>
     <t>Pertumbuhan : perubahan pada suatu sel organisme yang disertai dengan pertumbuhannya ukuran,berat dan tinggi. Perkembangan : suatu proses differensiasi, organogenesis, dan diakhiridengan terbentuknya individu baru dengan lebih dewasa</t>
   </si>
   <si>
-    <t>0010838185</t>
-  </si>
-  <si>
-    <t>FITRIYANI UMY HASBIALLOH</t>
-  </si>
-  <si>
-    <t>0018648860</t>
-  </si>
-  <si>
-    <t>HAFIZAIDAN MUFLIH</t>
-  </si>
-  <si>
     <t>Pertumbuhan : proses perubahan ukuran, massa, jumlah sel, dan irrevesible, dapat dihitung dengan angka. Perkembangan : proses perubahan menuju dewasa tidak bisa dihitung dengan angka ,reversible.</t>
   </si>
   <si>
-    <t>0012052563</t>
-  </si>
-  <si>
-    <t>INA EFIKA</t>
-  </si>
-  <si>
     <t>Pertumbuhan :  bersifat kuantitatif ( bisadigamberkan dengan bilangan), terlihat dari keadaan fisik, memiliki batasan , bersifat irrevesible. Perkembangan : dipengaruhi pengalaman, bersifat revesible, tidak terbatas, terlihat di sifat</t>
   </si>
   <si>
-    <t>0011890681</t>
-  </si>
-  <si>
-    <t>IZMI JULIYANTI</t>
-  </si>
-  <si>
     <t>Pertumbuhan bersifat kuantitatif, sedangkan perkembangan bersifat kualitatif. Pertumbuhan tidak dapat balik sedangkan perkembangan dapat balik.Pertumbuhan dapat dinyatakan dengan satuan bilangan sedangkan perkembangan tidakdapat dinyatakan dengan satuan bilangan</t>
   </si>
   <si>
-    <t>0010302660</t>
-  </si>
-  <si>
-    <t>JULIYANA KOMSI</t>
-  </si>
-  <si>
     <t>Pertumbuhan : masa tumbuhnya tanaman .Perkembangan : awal mulanya tanaman berkembang</t>
   </si>
   <si>
-    <t>0006110893</t>
-  </si>
-  <si>
-    <t>LATIFAH NURAINI</t>
-  </si>
-  <si>
-    <t>0010295950</t>
-  </si>
-  <si>
-    <t>LINDA WATI</t>
-  </si>
-  <si>
-    <t>0002874007</t>
-  </si>
-  <si>
-    <t>MARSHA REVIANA</t>
-  </si>
-  <si>
-    <t>0004757801</t>
-  </si>
-  <si>
-    <t>MOCHAMAD HASAN MAULANA</t>
-  </si>
-  <si>
     <t>Mengalami pencapaian oertumbuhan secara logaritma. Pertumbuhan untuk meningkatkan yang lebih tinggi</t>
   </si>
   <si>
-    <t>0018211612</t>
-  </si>
-  <si>
-    <t>MUHAMMAD SANDI SAWALUDIN</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pertumbuhan adalah sesuatu yang bisa menjadi bertumbuh yang awalnya kecil menjadi membesar. Contohnya : pertumbuhan tinggi badan, pertumbuhan otot, pertumbuhan badan. Perkembangan adalah suatu proses yang awalnya layu seperti tumbuhan bisa menjadi berkembang apabila dijaga dan dirawat. Contoh : Perkembangan bunga yang asalnya layu jadi berkembang </t>
   </si>
   <si>
-    <t>0020038480</t>
-  </si>
-  <si>
-    <t>NADIA YULINAH</t>
-  </si>
-  <si>
     <t>Pertumbuhan : suatu proses dimana tumbuhan mengalami perubahan ukuran,massa, jumlah sel, irrevisible, bersifat kuantitatif. Tumbuhan menjadi tinggi dan panjang. Perkembangan : suatu proses dimana tumbuhan mengalami kedewasaan, yang bersifat kualitatif (ukurannya tidak dapat dihitung dengan bilangan). Sebagai contoh tumbuhan itu mengalami perkembangan yaitu munculnya buah dan bunga,juga reversible</t>
   </si>
   <si>
-    <t>0001115817</t>
-  </si>
-  <si>
-    <t>NELLY PANCA INDRIANI</t>
-  </si>
-  <si>
     <t>Pertumbuhan dapat dihitung, ada masanya, bisa dilihat langsung. Perkembangan tidak dapat dihitung, tidak terpengaruh oleh masa, tidak bisa dilihat secara langsung</t>
   </si>
   <si>
-    <t>0004268267</t>
-  </si>
-  <si>
-    <t>NENG JULAEHA</t>
-  </si>
-  <si>
-    <t>0003878278</t>
-  </si>
-  <si>
-    <t>NINA SA'IDAH</t>
-  </si>
-  <si>
-    <t>0005798723</t>
-  </si>
-  <si>
-    <t>NURIDA</t>
-  </si>
-  <si>
     <t>Pertumbuhan adalah suatu proses bertambahnya jumlah sel tubuh suatu organisme yang disertai dengan pertumbuhan ukuran, berat, dan tinggi yang bersifat tidak dapat kembali pada keadaan semula. Sedangkanperkembangan adalah suatu proses differensiasi organogenesis dan diakhiri dengan terbentuknya individu baru yang lebih lengkap dan dewasa</t>
   </si>
   <si>
-    <t>0020039152</t>
-  </si>
-  <si>
-    <t>RACHMAT WAHYUDIN</t>
-  </si>
-  <si>
     <t>Pertumbuhan : yaitu untuk menuju ke tingkat yang lebih tinggi atau dewasa. Perkembangan untuk meningkatkan organ yang ada pada tumbuhan</t>
   </si>
   <si>
-    <t>0010295593</t>
-  </si>
-  <si>
-    <t>RISMA WULANDARI</t>
-  </si>
-  <si>
     <t>Pertumbuhan : bersifat kuantitatif , terlihat dari keadaan fisik, memiliki batasan, bersifat irrevesible. Perkembangan : bersifat kyalitatif, terlihat dari sifat dan kemampuannya, tidak terbatas oleh usia, bersifat reversible</t>
   </si>
   <si>
-    <t>0010295957</t>
-  </si>
-  <si>
-    <t>RIVAN ADI WIBAWA</t>
-  </si>
-  <si>
     <t>Temperatur, kelembapan, bibit unggul, tanah</t>
   </si>
   <si>
-    <t>0020110988</t>
-  </si>
-  <si>
-    <t>RIZKI PERMANA HIDAYAT</t>
-  </si>
-  <si>
     <t>Pertumbuhan tumbuhan adalah terjadinya perubahan ukuran, massa, jumlah sel, dan reversible. Pertumbuhan tumbuhan akan cepat bila tumbuhan berada di tempat yang gelap. Perkembangan Pertumbuhan sedangkan perkembangan adanya perubahan menuju kesempurnaan</t>
   </si>
   <si>
-    <t>0011816687</t>
-  </si>
-  <si>
-    <t>SALMA SALSABILA</t>
-  </si>
-  <si>
-    <t>0013186418</t>
-  </si>
-  <si>
-    <t>SELI NUR INTAN</t>
-  </si>
-  <si>
     <t>Pertumbuhan : bersifat kuantitatif, terlihat dari keadaan fisik, bersifat irrevesible, memiliki batasan.Perkembangan : bersifat reversible, terlihat dari sifat kemampuannya, sifat kualitatif, tidakterbatas oleh usia</t>
   </si>
   <si>
-    <t>0002873661</t>
-  </si>
-  <si>
-    <t>SITI SAADAH</t>
-  </si>
-  <si>
-    <t>0001114228</t>
-  </si>
-  <si>
-    <t>TITA GUSTIYANI</t>
-  </si>
-  <si>
     <t>Pertumbuhan : bersifat kuantitatif,memiliki batasan, bersifat irrevesible, terlihat dari keadaaan fisik. Perkembangan : tidak terbatas oleh usia , bersifat reversible, bersifat kualitatif, terlihat dari sifatdankemampuannya.</t>
   </si>
   <si>
-    <t>0010301998</t>
-  </si>
-  <si>
-    <t>VIRDA ETIKASARI</t>
-  </si>
-  <si>
     <t>Pertumbuhan : bersifat kuantitatif, irreversible, berdasarkan pembelahan sel.Perkembangan kualitatif, reversible, berdasarkan pengalaman</t>
   </si>
   <si>
-    <t>0018213674</t>
-  </si>
-  <si>
-    <t>YANTI</t>
-  </si>
-  <si>
     <t>Pertumbuhan :memanjang. Perkembangan dipengaruhi pengalaman, bersifat reversible, tidak terbatas, terlihat di sifat</t>
   </si>
   <si>
-    <t>0026362541</t>
-  </si>
-  <si>
-    <t>YUDA ADRIANSYAH</t>
-  </si>
-  <si>
-    <t>0010412312</t>
-  </si>
-  <si>
-    <t>YULIA NUR MAYANTI</t>
-  </si>
-  <si>
     <t>Pertumbuhan : besifat kuantitatif dan bisa digambarkan dengan bilangan. Perkembangan bersifat kualitatif,tidak bisa digambarkan dengan bilangan</t>
   </si>
   <si>
-    <t>0011805600</t>
-  </si>
-  <si>
-    <t>TRIDA CANDRA TANTYA</t>
-  </si>
-  <si>
     <t>XII-IIS-2</t>
   </si>
   <si>
@@ -469,7 +246,226 @@
     <t>cahaya, membantu dalam proses fotosintesis dan menghambat hormon auksin. Air bisa juga membantu fotosintesis untuk menyuburkan tanah. Suhu untuk pembelahan sel baru, menjadi sel yang ideal. Nutrisi sebagai sumber makanan yng diangkut kedalam daun.</t>
   </si>
   <si>
-    <t>0054757809</t>
+    <t>Yuda Adriansyah</t>
+  </si>
+  <si>
+    <t>Ina Efika</t>
+  </si>
+  <si>
+    <t>Nelly Panca Indriani</t>
+  </si>
+  <si>
+    <t>Linda Wati</t>
+  </si>
+  <si>
+    <t>Nurida</t>
+  </si>
+  <si>
+    <t>Andika Yudha Pratama</t>
+  </si>
+  <si>
+    <t>Virda Etikasari</t>
+  </si>
+  <si>
+    <t>Neng Julaeha</t>
+  </si>
+  <si>
+    <t>Apriani Putri Hidaya</t>
+  </si>
+  <si>
+    <t>Ahmad Tirta</t>
+  </si>
+  <si>
+    <t>Erika Septiani Putri</t>
+  </si>
+  <si>
+    <t>Latifah Nuraini</t>
+  </si>
+  <si>
+    <t>Risma Wulandari</t>
+  </si>
+  <si>
+    <t>Tita Gustiyani</t>
+  </si>
+  <si>
+    <t>Aprillia Gustiarini</t>
+  </si>
+  <si>
+    <t>Rachmat Wahyudin</t>
+  </si>
+  <si>
+    <t>Izmi Juliyanti</t>
+  </si>
+  <si>
+    <t>Yulia Nur Mayanti</t>
+  </si>
+  <si>
+    <t>Fitriyani Umy Hasbia</t>
+  </si>
+  <si>
+    <t>Juliyana Komsi</t>
+  </si>
+  <si>
+    <t>Muhammad Sandi Sawal</t>
+  </si>
+  <si>
+    <t>Devia Arianti</t>
+  </si>
+  <si>
+    <t>Yanti</t>
+  </si>
+  <si>
+    <t>Dikri Isti Komariah</t>
+  </si>
+  <si>
+    <t>Astri Rahmawati</t>
+  </si>
+  <si>
+    <t>Hafizaidan Muflih</t>
+  </si>
+  <si>
+    <t>Defana Balqis Titani</t>
+  </si>
+  <si>
+    <t>Marsha Reviana</t>
+  </si>
+  <si>
+    <t>Seli Nur Intan</t>
+  </si>
+  <si>
+    <t>Siti Saadah</t>
+  </si>
+  <si>
+    <t>Salma Salsabila</t>
+  </si>
+  <si>
+    <t>Nadia Yulinah</t>
+  </si>
+  <si>
+    <t>Anisa Nuriyanti</t>
+  </si>
+  <si>
+    <t>Nina Sa'Idah</t>
+  </si>
+  <si>
+    <t>Rizki Permana Hidaya</t>
+  </si>
+  <si>
+    <t>Mochamad Hasan Maula</t>
+  </si>
+  <si>
+    <t>Rivan Adi Wibawa</t>
+  </si>
+  <si>
+    <t>0002633620</t>
+  </si>
+  <si>
+    <t>0002715194</t>
+  </si>
+  <si>
+    <t>0002715216</t>
+  </si>
+  <si>
+    <t>0002715301</t>
+  </si>
+  <si>
+    <t>0002873967</t>
+  </si>
+  <si>
+    <t>0003308944</t>
+  </si>
+  <si>
+    <t>0003489300</t>
+  </si>
+  <si>
+    <t>0005382122</t>
+  </si>
+  <si>
+    <t>0010236526</t>
+  </si>
+  <si>
+    <t>0010295726</t>
+  </si>
+  <si>
+    <t>0010295779</t>
+  </si>
+  <si>
+    <t>0010371013</t>
+  </si>
+  <si>
+    <t>0011371395</t>
+  </si>
+  <si>
+    <t>0011613666</t>
+  </si>
+  <si>
+    <t>0011613711</t>
+  </si>
+  <si>
+    <t>0011816689</t>
+  </si>
+  <si>
+    <t>0011933837</t>
+  </si>
+  <si>
+    <t>0015552099</t>
+  </si>
+  <si>
+    <t>0016099032</t>
+  </si>
+  <si>
+    <t>0016537597</t>
+  </si>
+  <si>
+    <t>0016953161</t>
+  </si>
+  <si>
+    <t>0017232703</t>
+  </si>
+  <si>
+    <t>0017466915</t>
+  </si>
+  <si>
+    <t>0019813443</t>
+  </si>
+  <si>
+    <t>0020110987</t>
+  </si>
+  <si>
+    <t>9970016279</t>
+  </si>
+  <si>
+    <t>9992966401</t>
+  </si>
+  <si>
+    <t>0011932093</t>
+  </si>
+  <si>
+    <t>0010412502</t>
+  </si>
+  <si>
+    <t>9990016723</t>
+  </si>
+  <si>
+    <t>9981896894</t>
+  </si>
+  <si>
+    <t>0011932108</t>
+  </si>
+  <si>
+    <t>0015950248</t>
+  </si>
+  <si>
+    <t>0010295734</t>
+  </si>
+  <si>
+    <t>0010383171</t>
+  </si>
+  <si>
+    <t>0002633212</t>
+  </si>
+  <si>
+    <t>0010370791</t>
   </si>
 </sst>
 </file>
@@ -757,19 +753,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -783,6 +772,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -792,67 +787,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{EDF595D3-6887-44A9-9326-E602712E51B2}"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1249,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B54"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1292,7 +1227,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -1408,641 +1343,710 @@
       </c>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>1</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="32">
+      <c r="E17" s="30">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>2</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>3</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="32">
+      <c r="B19" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="30">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>4</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="32">
+      <c r="B20" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="30">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>5</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="32">
+      <c r="B21" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="30">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>6</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>7</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="32">
+      <c r="B23" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="30">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>8</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
         <v>9</v>
       </c>
-      <c r="B25" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="32">
+      <c r="B25" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="30">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F25" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>10</v>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="32">
+      <c r="B26" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="30">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F26" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>11</v>
       </c>
-      <c r="B27" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>12</v>
       </c>
-      <c r="B28" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="32">
+      <c r="B28" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="30">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F28" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>13</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="32">
+      <c r="B29" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="30">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F29" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>14</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="32">
+      <c r="B30" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E30" s="30">
+        <v>30</v>
+      </c>
+      <c r="F30" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>15</v>
       </c>
-      <c r="B31" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="32">
+      <c r="B31" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="30">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F31" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>16</v>
       </c>
-      <c r="B32" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>17</v>
       </c>
-      <c r="B33" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="32">
+      <c r="B33" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="30">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F33" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <v>18</v>
       </c>
-      <c r="B34" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>19</v>
       </c>
-      <c r="B35" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="32">
+      <c r="B35" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="30">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F35" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <v>20</v>
       </c>
-      <c r="B36" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="32">
+      <c r="B36" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="30">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="F36" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A37" s="21">
         <v>21</v>
       </c>
-      <c r="B37" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="32">
+      <c r="B37" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="30">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F37" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <v>22</v>
       </c>
-      <c r="B38" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="32">
+      <c r="B38" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="30">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F38" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>23</v>
       </c>
-      <c r="B39" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="32"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="30"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <v>24</v>
       </c>
-      <c r="B40" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="32"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="29"/>
+      <c r="E40" s="30"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>25</v>
       </c>
-      <c r="B41" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="32">
+      <c r="B41" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="30">
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F41" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="21">
         <v>26</v>
       </c>
-      <c r="B42" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" s="34">
+      <c r="B42" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="32">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F42" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="21">
         <v>27</v>
       </c>
-      <c r="B43" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" s="34">
+      <c r="B43" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="32">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="F43" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A44" s="21">
         <v>28</v>
       </c>
-      <c r="B44" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="34">
+      <c r="B44" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="32">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="F44" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="21">
         <v>29</v>
       </c>
-      <c r="B45" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="34">
+      <c r="B45" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="32">
         <v>30</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="F45" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A46" s="21">
         <v>30</v>
       </c>
-      <c r="B46" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="34"/>
-    </row>
-    <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="28"/>
+      <c r="E46" s="32"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21">
         <v>31</v>
       </c>
-      <c r="B47" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="34">
+      <c r="B47" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="32">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="F47" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A48" s="21">
         <v>32</v>
       </c>
-      <c r="B48" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="34"/>
-    </row>
-    <row r="49" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B48" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="28"/>
+      <c r="E48" s="32"/>
+    </row>
+    <row r="49" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
         <v>33</v>
       </c>
-      <c r="B49" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="E49" s="34">
+      <c r="B49" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="32">
         <v>40</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F49" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" s="21">
         <v>34</v>
       </c>
-      <c r="B50" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" s="34">
+      <c r="B50" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="33">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="F50" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="21">
         <v>35</v>
       </c>
-      <c r="B51" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>114</v>
+      <c r="B51" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="E51" s="25">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="F51" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="21">
         <v>36</v>
       </c>
-      <c r="B52" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" s="30"/>
+      <c r="B52" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="28"/>
       <c r="E52" s="25"/>
     </row>
-    <row r="53" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+    <row r="53" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="21">
         <v>37</v>
       </c>
-      <c r="B53" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>119</v>
+      <c r="B53" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>45</v>
       </c>
       <c r="E53" s="25">
         <v>30</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>38</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="D54" s="30"/>
+      <c r="F53" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D54" s="24"/>
       <c r="E54" s="25"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D55" s="24"/>
       <c r="E55" s="25"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D56" s="24"/>
       <c r="E56" s="25"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D57" s="24"/>
       <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D58" s="24"/>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D59" s="24"/>
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D60" s="24"/>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D61" s="24"/>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D62" s="24"/>
       <c r="E62" s="25"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D63" s="24"/>
       <c r="E63" s="25"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D64" s="24"/>
       <c r="E64" s="25"/>
     </row>
@@ -2294,37 +2298,36 @@
       <c r="D126" s="24"/>
       <c r="E126" s="25"/>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D127" s="24"/>
-      <c r="E127" s="25"/>
-    </row>
   </sheetData>
+  <sortState ref="B17:E53">
+    <sortCondition ref="C17:C53"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+  <conditionalFormatting sqref="B28 B50">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>H28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:B33">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>H32</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:B39">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
-      <formula>H38</formula>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>H39</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>H42</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B51">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
-      <formula>H50</formula>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>H38</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2333,10 +2336,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2376,7 +2379,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -2492,622 +2495,696 @@
       </c>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>1</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>22</v>
+      <c r="B17" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="D17"/>
       <c r="E17" s="22"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>2</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>25</v>
+      <c r="B18" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="D18"/>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>3</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>27</v>
+      <c r="B19" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="E19" s="22">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>4</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>30</v>
+      <c r="B20" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="E20" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>5</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>33</v>
+      <c r="B21" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>85</v>
       </c>
       <c r="D21"/>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>6</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>36</v>
+      <c r="B22" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>95</v>
       </c>
       <c r="D22"/>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>7</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>38</v>
+      <c r="B23" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="E23" s="22">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>8</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>41</v>
+      <c r="B24" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>92</v>
       </c>
       <c r="D24"/>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>9</v>
       </c>
-      <c r="B25" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>43</v>
+      <c r="B25" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="E25" s="22">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>10</v>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>46</v>
+      <c r="B26" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="E26" s="22">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>11</v>
       </c>
-      <c r="B27" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>49</v>
+      <c r="B27" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>89</v>
       </c>
       <c r="D27"/>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>12</v>
       </c>
-      <c r="B28" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>51</v>
+      <c r="B28" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="E28" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F28" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>13</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
         <v>53</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" t="s">
-        <v>129</v>
       </c>
       <c r="E29" s="22">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F29" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>14</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>57</v>
+      <c r="B30" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="E30" s="22">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F30" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>15</v>
       </c>
-      <c r="B31" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>60</v>
+      <c r="B31" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="E31" s="22">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F31" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>16</v>
       </c>
-      <c r="B32" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>63</v>
+      <c r="B32" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="D32"/>
       <c r="E32" s="22"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>17</v>
       </c>
-      <c r="B33" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>65</v>
+      <c r="B33" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="E33" s="22">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F33" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <v>18</v>
       </c>
-      <c r="B34" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>67</v>
+      <c r="B34" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="D34"/>
       <c r="E34" s="22"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>19</v>
       </c>
-      <c r="B35" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>69</v>
+      <c r="B35" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="E35" s="22">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F35" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <v>20</v>
       </c>
-      <c r="B36" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>72</v>
+      <c r="B36" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="E36" s="22">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="F36" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A37" s="21">
         <v>21</v>
       </c>
-      <c r="B37" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>75</v>
+      <c r="B37" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="E37" s="22">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F37" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <v>22</v>
       </c>
-      <c r="B38" s="29">
-        <v>9001115817</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>78</v>
+      <c r="B38" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>73</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="E38" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F38" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>23</v>
       </c>
-      <c r="B39" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>81</v>
+      <c r="B39" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>78</v>
       </c>
       <c r="D39"/>
       <c r="E39" s="22"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <v>24</v>
       </c>
-      <c r="B40" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>83</v>
+      <c r="B40" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="D40"/>
       <c r="E40" s="22"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>25</v>
       </c>
-      <c r="B41" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>85</v>
+      <c r="B41" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="E41" s="22">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="F41" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A42" s="21">
         <v>26</v>
       </c>
-      <c r="B42" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>138</v>
+      <c r="B42" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="E42" s="23">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="114" x14ac:dyDescent="0.2">
+      <c r="F42" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A43" s="21">
         <v>27</v>
       </c>
-      <c r="B43" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>139</v>
+      <c r="B43" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="E43" s="23">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="F43" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A44" s="21">
         <v>28</v>
       </c>
-      <c r="B44" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>140</v>
+      <c r="B44" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>64</v>
       </c>
       <c r="E44" s="23">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="F44" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A45" s="21">
         <v>29</v>
       </c>
-      <c r="B45" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>141</v>
+      <c r="B45" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="E45" s="23">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="F45" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A46" s="21">
         <v>30</v>
       </c>
-      <c r="B46" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" s="30"/>
+      <c r="B46" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="28"/>
       <c r="E46" s="23"/>
     </row>
-    <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21">
         <v>31</v>
       </c>
-      <c r="B47" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>142</v>
+      <c r="B47" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>66</v>
       </c>
       <c r="E47" s="23">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="F47" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A48" s="21">
         <v>32</v>
       </c>
-      <c r="B48" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" s="30"/>
+      <c r="B48" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="28"/>
       <c r="E48" s="23"/>
     </row>
-    <row r="49" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
         <v>33</v>
       </c>
-      <c r="B49" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>143</v>
+      <c r="B49" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>67</v>
       </c>
       <c r="E49" s="23">
         <v>40</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="F49" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A50" s="21">
         <v>34</v>
       </c>
-      <c r="B50" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>144</v>
+      <c r="B50" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>68</v>
       </c>
       <c r="E50" s="23">
         <v>40</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="57" x14ac:dyDescent="0.2">
-      <c r="B51" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>113</v>
+      <c r="F50" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A51" s="21">
+        <v>35</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>93</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="E51" s="25">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B52" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>116</v>
+      <c r="F51" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="21">
+        <v>36</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="D52" s="24"/>
       <c r="E52" s="25"/>
     </row>
-    <row r="53" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B53" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>118</v>
+    <row r="53" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="21">
+        <v>37</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="E53" s="25">
         <v>30</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="25"/>
+      <c r="F53" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D54" s="24"/>
       <c r="E54" s="25"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D55" s="24"/>
       <c r="E55" s="25"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D56" s="24"/>
       <c r="E56" s="25"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D57" s="24"/>
       <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D58" s="24"/>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D59" s="24"/>
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D60" s="24"/>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D61" s="24"/>
       <c r="E61" s="25"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D62" s="24"/>
       <c r="E62" s="25"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D63" s="24"/>
       <c r="E63" s="25"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D64" s="24"/>
       <c r="E64" s="25"/>
     </row>
@@ -3359,15 +3436,14 @@
       <c r="D126" s="24"/>
       <c r="E126" s="25"/>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D127" s="24"/>
-      <c r="E127" s="25"/>
-    </row>
   </sheetData>
+  <sortState ref="B17:E53">
+    <sortCondition ref="C17:C53"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B28">
+  <conditionalFormatting sqref="B28 B50">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>H28</formula>
     </cfRule>
@@ -3377,9 +3453,9 @@
       <formula>H32</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:B39">
+  <conditionalFormatting sqref="B39">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>H38</formula>
+      <formula>H39</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
@@ -3387,9 +3463,9 @@
       <formula>H42</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B51">
+  <conditionalFormatting sqref="B38">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>H50</formula>
+      <formula>H38</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
